--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Fall.120319.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Fall.120319.xlsx_with_dialog_acts.xlsx
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -895,12 +895,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1105,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1147,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1735,12 +1735,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3079,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3927,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4523,12 +4523,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4775,12 +4775,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4947,12 +4947,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5073,12 +5073,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5199,12 +5199,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5367,12 +5367,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5493,12 +5493,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5535,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5745,12 +5745,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5997,12 +5997,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6123,12 +6123,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6207,12 +6207,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6417,12 +6417,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6589,12 +6589,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6883,12 +6883,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7097,12 +7097,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7181,12 +7181,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7559,12 +7559,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8865,12 +8865,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9243,12 +9243,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11565,12 +11565,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11649,12 +11649,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11901,12 +11901,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12153,12 +12153,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12447,12 +12447,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12573,12 +12573,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12661,12 +12661,12 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13249,12 +13249,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13995,12 +13995,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14835,12 +14835,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15199,12 +15199,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15479,12 +15479,12 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15639,12 +15639,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15719,12 +15719,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15799,12 +15799,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16279,12 +16279,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16683,12 +16683,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17123,12 +17123,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17163,12 +17163,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17367,12 +17367,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17767,12 +17767,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18007,12 +18007,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18247,12 +18247,12 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18287,12 +18287,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18691,12 +18691,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19375,12 +19375,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19695,12 +19695,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20095,12 +20095,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20135,12 +20135,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20535,12 +20535,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20575,12 +20575,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20735,12 +20735,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20935,12 +20935,12 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21295,12 +21295,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21415,12 +21415,12 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21495,12 +21495,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21735,12 +21735,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22455,12 +22455,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22895,12 +22895,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23375,12 +23375,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23535,12 +23535,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23575,12 +23575,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23779,12 +23779,12 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23819,12 +23819,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24507,12 +24507,12 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24867,12 +24867,12 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25471,12 +25471,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25511,12 +25511,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25751,12 +25751,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26279,12 +26279,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26363,12 +26363,12 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27451,12 +27451,12 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27531,12 +27531,12 @@
       <c r="H659" t="inlineStr"/>
       <c r="I659" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27851,12 +27851,12 @@
       <c r="H667" t="inlineStr"/>
       <c r="I667" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28131,12 +28131,12 @@
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28291,12 +28291,12 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28819,12 +28819,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28903,12 +28903,12 @@
       <c r="H693" t="inlineStr"/>
       <c r="I693" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29663,12 +29663,12 @@
       <c r="H712" t="inlineStr"/>
       <c r="I712" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29943,12 +29943,12 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29983,12 +29983,12 @@
       <c r="H720" t="inlineStr"/>
       <c r="I720" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30063,12 +30063,12 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30743,12 +30743,12 @@
       <c r="H739" t="inlineStr"/>
       <c r="I739" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31383,12 +31383,12 @@
       <c r="H755" t="inlineStr"/>
       <c r="I755" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31503,12 +31503,12 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31583,12 +31583,12 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32307,12 +32307,12 @@
       <c r="H778" t="inlineStr"/>
       <c r="I778" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32467,12 +32467,12 @@
       <c r="H782" t="inlineStr"/>
       <c r="I782" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32995,12 +32995,12 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33075,12 +33075,12 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33759,12 +33759,12 @@
       <c r="H814" t="inlineStr"/>
       <c r="I814" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33923,12 +33923,12 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34123,12 +34123,12 @@
       <c r="H823" t="inlineStr"/>
       <c r="I823" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34203,12 +34203,12 @@
       <c r="H825" t="inlineStr"/>
       <c r="I825" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34447,12 +34447,12 @@
       <c r="H831" t="inlineStr"/>
       <c r="I831" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34607,12 +34607,12 @@
       <c r="H835" t="inlineStr"/>
       <c r="I835" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34691,12 +34691,12 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34731,12 +34731,12 @@
       <c r="H838" t="inlineStr"/>
       <c r="I838" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34811,12 +34811,12 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34975,12 +34975,12 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -35775,12 +35775,12 @@
       <c r="H864" t="inlineStr"/>
       <c r="I864" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36015,12 +36015,12 @@
       <c r="H870" t="inlineStr"/>
       <c r="I870" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36341,12 +36341,12 @@
       <c r="H878" t="inlineStr"/>
       <c r="I878" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36551,12 +36551,12 @@
       <c r="H883" t="inlineStr"/>
       <c r="I883" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36719,12 +36719,12 @@
       <c r="H887" t="inlineStr"/>
       <c r="I887" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36845,12 +36845,12 @@
       <c r="H890" t="inlineStr"/>
       <c r="I890" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37265,12 +37265,12 @@
       <c r="H900" t="inlineStr"/>
       <c r="I900" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37349,12 +37349,12 @@
       <c r="H902" t="inlineStr"/>
       <c r="I902" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37391,12 +37391,12 @@
       <c r="H903" t="inlineStr"/>
       <c r="I903" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37727,12 +37727,12 @@
       <c r="H911" t="inlineStr"/>
       <c r="I911" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37811,12 +37811,12 @@
       <c r="H913" t="inlineStr"/>
       <c r="I913" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37853,12 +37853,12 @@
       <c r="H914" t="inlineStr"/>
       <c r="I914" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38231,12 +38231,12 @@
       <c r="H923" t="inlineStr"/>
       <c r="I923" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38273,12 +38273,12 @@
       <c r="H924" t="inlineStr"/>
       <c r="I924" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38693,12 +38693,12 @@
       <c r="H934" t="inlineStr"/>
       <c r="I934" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39029,12 +39029,12 @@
       <c r="H942" t="inlineStr"/>
       <c r="I942" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39113,12 +39113,12 @@
       <c r="H944" t="inlineStr"/>
       <c r="I944" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39953,12 +39953,12 @@
       <c r="H964" t="inlineStr"/>
       <c r="I964" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
